--- a/HW/BackBoard/BOM.xlsx
+++ b/HW/BackBoard/BOM.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamster\Documents\Development\dc801\BM-Badge\HW\BackBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61EA51C-8966-4AAF-8CCB-5DE69A528CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C95754-C65F-4D0C-AF97-2B8CC1D460A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25530" yWindow="2325" windowWidth="23040" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4290" windowWidth="23040" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$66</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="192">
   <si>
     <t>Ref Des</t>
   </si>
@@ -366,18 +370,6 @@
     <t xml:space="preserve">Board to board - front board </t>
   </si>
   <si>
-    <t>M20-7920542R</t>
-  </si>
-  <si>
-    <t>952-3205-1-ND</t>
-  </si>
-  <si>
-    <t>TSM-105-02-T-DH</t>
-  </si>
-  <si>
-    <t>SAM12234-ND</t>
-  </si>
-  <si>
     <t>Joystick</t>
   </si>
   <si>
@@ -429,9 +421,6 @@
     <t>RMCF0603FT806KCT-ND</t>
   </si>
   <si>
-    <t>2019-RK73B1JTTD205JDKR-ND</t>
-  </si>
-  <si>
     <t>RMCF0603JT470RCT-ND</t>
   </si>
   <si>
@@ -456,9 +445,6 @@
     <t>160-1435-1-ND</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
@@ -471,9 +457,6 @@
     <t>U7</t>
   </si>
   <si>
-    <t>C24</t>
-  </si>
-  <si>
     <t>SW2-17</t>
   </si>
   <si>
@@ -486,18 +469,12 @@
     <t>U6</t>
   </si>
   <si>
-    <t>D5-D23</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
     <t>R15</t>
   </si>
   <si>
-    <t>C15,C17,C20</t>
-  </si>
-  <si>
     <t>C16,C18,C21,C22</t>
   </si>
   <si>
@@ -507,15 +484,9 @@
     <t>U1</t>
   </si>
   <si>
-    <t>C2,C4,C5</t>
-  </si>
-  <si>
     <t>J18</t>
   </si>
   <si>
-    <t>C23</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -528,24 +499,12 @@
     <t>C6</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>J14</t>
   </si>
   <si>
@@ -564,24 +523,15 @@
     <t>R13</t>
   </si>
   <si>
-    <t>C25</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>C9,C12</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -600,12 +550,6 @@
     <t>5.1k Resistor</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -615,22 +559,52 @@
     <t>S25FL256S</t>
   </si>
   <si>
-    <t>C13</t>
-  </si>
-  <si>
     <t>R2,R3</t>
   </si>
   <si>
     <t>4.7k Resistor</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>R16</t>
   </si>
   <si>
     <t>1k Resistor</t>
+  </si>
+  <si>
+    <t>732-13382-1-ND</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>2019-RK73B1JTTD205JCT-ND</t>
+  </si>
+  <si>
+    <t>D3,D5-D23</t>
+  </si>
+  <si>
+    <t>2015-S25FL256SDSMFV013CT-ND</t>
+  </si>
+  <si>
+    <t>C2,C4,C5,C8,C9,C12</t>
+  </si>
+  <si>
+    <t>RMCF0603JG5K10CT-ND</t>
+  </si>
+  <si>
+    <t>R1,R12</t>
+  </si>
+  <si>
+    <t>C1,C13,C14,C15,C17,C20,C23,C24,C25</t>
+  </si>
+  <si>
+    <t>RMCF0603JT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0603JJ1K00CT-ND</t>
   </si>
 </sst>
 </file>
@@ -990,11 +964,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -1052,253 +1029,275 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1.78E-2</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I45" si="0">G2*H2</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I47" si="0">G2*H2</f>
+        <v>0.16020000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="1">G2*$L$66</f>
-        <v>200</v>
+        <f t="shared" ref="K2:K47" si="1">G2*$L$66</f>
+        <v>2790</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L5" si="2">K2*H2</f>
-        <v>0</v>
+        <f>K2*H2</f>
+        <v>49.661999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>2.3199999999999998E-2</v>
+      </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="L3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>K3*H3</f>
+        <v>14.383999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1.1411</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.1411</v>
+        <v>0.128</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>1240</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
-        <v>228.22</v>
+        <f>K4*H4</f>
+        <v>39.68</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="L5">
+        <f>K5*H14</f>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>9.6159599999999994</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>9.6159599999999994</v>
+        <v>0.12179999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>1860</v>
       </c>
       <c r="L6">
-        <f>K6*H6</f>
-        <v>1923.1919999999998</v>
+        <f t="shared" ref="L6:L47" si="2">K6*H6</f>
+        <v>37.757999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>6.4399999999999999E-2</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L7">
-        <f>K7*H7</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>19.963999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.75</v>
+        <v>0.14760000000000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.14760000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L45" si="3">K8*H8</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>45.756</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1310,531 +1309,502 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1.78E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
-        <v>3.56</v>
+        <f t="shared" si="2"/>
+        <v>3.968</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>26</v>
-      </c>
-      <c r="H10">
-        <v>9.5280000000000004E-2</v>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.12972</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>2.4772799999999999</v>
+        <v>0.25944</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>620</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
-        <v>495.45600000000002</v>
+        <f t="shared" si="2"/>
+        <v>80.426400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>7.6770000000000005E-2</v>
+        <v>9.5280000000000004E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>2.0727900000000004</v>
+        <v>2.4772799999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>8060</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
-        <v>414.55800000000005</v>
+        <f t="shared" si="2"/>
+        <v>767.95680000000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12"/>
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>1.69</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>3.38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>122</v>
+        <v>1.6073999999999999</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>5890</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
-        <v>676</v>
+        <f t="shared" si="2"/>
+        <v>498.29399999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1.2250000000000001</v>
+        <v>0.4622</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <v>0.4622</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>490.00000000000006</v>
+        <f t="shared" si="2"/>
+        <v>143.28200000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>51</v>
-      </c>
-      <c r="H14">
-        <v>8.4599999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>4.3145999999999995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>10200</v>
+        <v>310</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
-        <v>862.92</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>5.5999999999999999E-3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>5.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+      <c r="A16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1.78E-2</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>5.3400000000000003E-2</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
-        <v>10.68</v>
+        <f t="shared" si="2"/>
+        <v>403.31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>3.2000000000000001E-2</v>
+        <v>4.82</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.128</v>
+        <v>4.82</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>25.6</v>
+        <f t="shared" si="2"/>
+        <v>1494.2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.12790000000000001</v>
+        <v>0.4194</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.12790000000000001</v>
+        <v>0.4194</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L19">
-        <f>K19*H28</f>
-        <v>29.520000000000003</v>
+        <f t="shared" si="2"/>
+        <v>130.01400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2.0299999999999999E-2</v>
+        <v>1.8717999999999999</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>6.0899999999999996E-2</v>
+        <v>1.8717999999999999</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
-        <v>12.18</v>
+        <f t="shared" si="2"/>
+        <v>580.25799999999992</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1.5200400000000001</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.5200400000000001</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
-        <v>304.00800000000004</v>
+        <f t="shared" si="2"/>
+        <v>255.595</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>61031021821</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1.3009999999999999</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.3009999999999999</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
-        <v>260.2</v>
+        <f t="shared" si="2"/>
+        <v>491.66</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -1862,140 +1832,143 @@
         <v>1.8726400000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
-        <v>374.52800000000002</v>
+        <f t="shared" si="2"/>
+        <v>580.51840000000004</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1.78E-2</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
-        <v>3.56</v>
+        <f t="shared" si="2"/>
+        <v>71.578999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.66500000000000004</v>
+        <v>0.16732</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.66500000000000004</v>
+        <v>0.16732</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
-        <v>133</v>
+        <f t="shared" si="2"/>
+        <v>51.869199999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0.23089999999999999</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.23089999999999999</v>
+        <v>1.12E-2</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
-        <v>46.18</v>
+        <f t="shared" si="2"/>
+        <v>3.472</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>19</v>
@@ -2004,74 +1977,68 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>6.4399999999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>6.4399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
-        <v>12.879999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.14760000000000001</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.14760000000000001</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
-        <v>29.520000000000003</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
@@ -2080,201 +2047,187 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1.78E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
-        <v>3.56</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.50907999999999998</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.50907999999999998</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J30" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
-        <v>101.816</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
+        <v>179</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.12972</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="2"/>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.25944</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
-        <v>51.887999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0.16732</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.16732</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
-        <v>33.463999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33"/>
+        <v>83</v>
+      </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.4194</v>
+        <v>6.3E-3</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.4194</v>
+        <v>6.3E-3</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
-        <v>83.88</v>
+        <f t="shared" si="2"/>
+        <v>1.9530000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2287,881 +2240,558 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K58" si="4">G34*$L$66</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>6.3E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>6.3E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
-        <v>1.26</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>5.5999999999999999E-3</v>
+        <v>1.12E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>620</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>3.472</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1.2800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
-        <v>2.56</v>
+        <f t="shared" si="2"/>
+        <v>1.736</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>4.82</v>
+        <v>0.50907999999999998</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>4.82</v>
+        <v>0.50907999999999998</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
-        <v>964</v>
+        <f t="shared" si="2"/>
+        <v>157.81479999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D39"/>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0.82450000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.82450000000000001</v>
+        <v>3.38</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>620</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
-        <v>164.9</v>
+        <f t="shared" si="2"/>
+        <v>1047.8</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H40">
-        <v>5.5999999999999999E-3</v>
+        <v>7.6770000000000005E-2</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>5.5999999999999999E-3</v>
+        <v>2.0727900000000004</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>8370</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>642.56490000000008</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1.78E-2</v>
+        <v>1.5200400000000001</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <v>1.5200400000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
-        <v>3.56</v>
+        <f t="shared" si="2"/>
+        <v>471.2124</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0.42</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>0.42</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>206.15</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2.0299999999999999E-2</v>
+        <v>9.6159599999999994</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>4.0599999999999997E-2</v>
+        <v>9.6159599999999994</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
-        <v>8.1199999999999992</v>
+        <f t="shared" si="2"/>
+        <v>2980.9476</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>8.4599999999999995E-2</v>
+        <v>0.42</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44" si="5">G44*H44</f>
-        <v>8.4599999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.42</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
-        <v>16.919999999999998</v>
+        <f t="shared" si="2"/>
+        <v>130.19999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>5.5999999999999999E-3</v>
+        <v>1.37</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>5.5999999999999999E-3</v>
+        <v>1.37</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>424.70000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>5.5999999999999999E-3</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46:I58" si="6">G46*H46</f>
-        <v>5.5999999999999999E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L58" si="7">K46*H46</f>
-        <v>1.1199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>379.75</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.4622</v>
+        <v>0.75</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
-        <v>0.4622</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="J47" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
-        <v>92.44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1.8717999999999999</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="6"/>
-        <v>1.8717999999999999</v>
-      </c>
-      <c r="J48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="7"/>
-        <v>374.35999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="6"/>
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="7"/>
-        <v>9.2799999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="6"/>
-        <v>1.12E-2</v>
-      </c>
-      <c r="J50" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="7"/>
-        <v>2.2399999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>122</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>122</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.12972</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="6"/>
-        <v>0.25944</v>
-      </c>
-      <c r="J56" t="s">
-        <v>122</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="7"/>
-        <v>51.887999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57" s="2"/>
-      <c r="I57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>122</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H58" s="2"/>
-      <c r="I58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>122</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G60">
         <f>SUM(G6:G56)</f>
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="I60">
         <f>SUM(I6:I56)</f>
-        <v>41.557890000000015</v>
+        <v>39.836650000000006</v>
       </c>
       <c r="J60" t="s">
         <v>9</v>
       </c>
       <c r="K60">
         <f>SUM(K6:K56)</f>
-        <v>33400</v>
+        <v>37820</v>
       </c>
       <c r="L60">
         <f>SUM(L6:L56)</f>
-        <v>8315.5180000000037</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12349.361500000001</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +2805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:12" x14ac:dyDescent="0.25">
       <c r="J64" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +2821,7 @@
         <v>33</v>
       </c>
       <c r="L65">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="10:12" x14ac:dyDescent="0.25">
@@ -3200,15 +2830,20 @@
       </c>
       <c r="L66">
         <f>SUM(L64:L65)</f>
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A66" xr:uid="{322A17EC-57F6-4ABA-9678-4CDB8989D43F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M66">
+      <sortCondition ref="A1:A66"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F38" r:id="rId1" xr:uid="{D88996AB-3702-4334-914A-21A7A4A891C9}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{D88996AB-3702-4334-914A-21A7A4A891C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="203" r:id="rId2"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>